--- a/WT - Wheels, Wheel Bearing & Tires/Cost/Cost_WT.xlsx
+++ b/WT - Wheels, Wheel Bearing & Tires/Cost/Cost_WT.xlsx
@@ -4,45 +4,56 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="WT A0100" sheetId="3" r:id="rId2"/>
+    <sheet name="WT A0200" sheetId="4" r:id="rId3"/>
+    <sheet name="WT 02001" sheetId="5" r:id="rId4"/>
+    <sheet name="dWT 02001" sheetId="6" r:id="rId5"/>
+    <sheet name="WT 02002" sheetId="7" r:id="rId6"/>
+    <sheet name="dWT 02002" sheetId="8" r:id="rId7"/>
+    <sheet name="WT 02003" sheetId="9" r:id="rId8"/>
+    <sheet name="dWT 02003" sheetId="10" r:id="rId9"/>
+    <sheet name="WT 02004" sheetId="11" r:id="rId10"/>
+    <sheet name="dWT 02004" sheetId="12" r:id="rId11"/>
+    <sheet name="WT 02005" sheetId="13" r:id="rId12"/>
+    <sheet name="dWT 02005" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="WT_0200_001_q">#REF!</definedName>
-    <definedName name="WT_0200_003">#REF!</definedName>
-    <definedName name="WT_0200_003_m">#REF!</definedName>
-    <definedName name="WT_0200_003_p">#REF!</definedName>
-    <definedName name="WT_0200_003_q">#REF!</definedName>
-    <definedName name="WT_0200_004">#REF!</definedName>
-    <definedName name="WT_0200_004_m">#REF!</definedName>
-    <definedName name="WT_0200_004_p">#REF!</definedName>
-    <definedName name="WT_0200_004_q">#REF!</definedName>
-    <definedName name="WT_0200_005">#REF!</definedName>
-    <definedName name="WT_0200_005_m">#REF!</definedName>
-    <definedName name="WT_0200_005_p">#REF!</definedName>
-    <definedName name="WT_0200_005_q">#REF!</definedName>
-    <definedName name="WT_0200_006">#REF!</definedName>
-    <definedName name="WT_0200_006_m">#REF!</definedName>
-    <definedName name="WT_0200_006_p">#REF!</definedName>
-    <definedName name="WT_0200_006_q">#REF!</definedName>
-    <definedName name="WT_02001">#REF!</definedName>
-    <definedName name="WT_02001_m">#REF!</definedName>
-    <definedName name="WT_02001_p">#REF!</definedName>
-    <definedName name="WT_A0100">#REF!</definedName>
+    <definedName name="WT_0200_001">'WT 02001'!$B$6</definedName>
+    <definedName name="WT_0200_001_m">'WT 02001'!$N$12</definedName>
+    <definedName name="WT_0200_001_p">'WT 02001'!$I$25</definedName>
+    <definedName name="WT_0200_001_q">'WT 02001'!$N$3</definedName>
+    <definedName name="WT_0200_003">'WT 02003'!$B$6</definedName>
+    <definedName name="WT_0200_003_m">'WT 02003'!$N$12</definedName>
+    <definedName name="WT_0200_003_p">'WT 02003'!$I$21</definedName>
+    <definedName name="WT_0200_003_q">'WT 02003'!$N$3</definedName>
+    <definedName name="WT_0200_004">'WT 02004'!$B$6</definedName>
+    <definedName name="WT_0200_004_m">'WT 02004'!$N$12</definedName>
+    <definedName name="WT_0200_004_p">'WT 02004'!$I$17</definedName>
+    <definedName name="WT_0200_004_q">'WT 02004'!$N$3</definedName>
+    <definedName name="WT_0200_005">'WT 02002'!$B$6</definedName>
+    <definedName name="WT_0200_005_m">'WT 02002'!$N$12</definedName>
+    <definedName name="WT_0200_005_p">'WT 02002'!$I$19</definedName>
+    <definedName name="WT_0200_005_q">'WT 02002'!$N$3</definedName>
+    <definedName name="WT_0200_006">'WT 02005'!$B$6</definedName>
+    <definedName name="WT_0200_006_m">'WT 02005'!$N$12</definedName>
+    <definedName name="WT_0200_006_p">'WT 02005'!$I$17</definedName>
+    <definedName name="WT_0200_006_q">'WT 02005'!$N$3</definedName>
+    <definedName name="WT_A0100">'WT A0100'!$B$5</definedName>
     <definedName name="WT_A0100_BOM">BOM!$C$7</definedName>
-    <definedName name="WT_A0100_f">#REF!</definedName>
-    <definedName name="WT_A0100_m">#REF!</definedName>
-    <definedName name="WT_A0100_p">#REF!</definedName>
-    <definedName name="WT_A0100_q">#REF!</definedName>
-    <definedName name="WT_A0200">#REF!</definedName>
-    <definedName name="WT_A0200_f">#REF!</definedName>
-    <definedName name="WT_A0200_m">#REF!</definedName>
-    <definedName name="WT_A0200_p">#REF!</definedName>
-    <definedName name="WT_A0200_pa">#REF!</definedName>
-    <definedName name="WT_A0200_q">#REF!</definedName>
-    <definedName name="WT_A0200_t">#REF!</definedName>
+    <definedName name="WT_A0100_f">'WT A0100'!$J$24</definedName>
+    <definedName name="WT_A0100_m">'WT A0100'!$N$15</definedName>
+    <definedName name="WT_A0100_p">'WT A0100'!$I$20</definedName>
+    <definedName name="WT_A0100_q">'WT A0100'!$N$3</definedName>
+    <definedName name="WT_A0200">'WT A0200'!$B$5</definedName>
+    <definedName name="WT_A0200_BOM">BOM!$C$8</definedName>
+    <definedName name="WT_A0200_f">'WT A0200'!$J$37</definedName>
+    <definedName name="WT_A0200_m">'WT A0200'!$N$21</definedName>
+    <definedName name="WT_A0200_p">'WT A0200'!$I$33</definedName>
+    <definedName name="WT_A0200_pa">'WT A0200'!$E$15</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -54,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="144">
   <si>
     <t>Area Total</t>
   </si>
@@ -153,19 +164,360 @@
   </si>
   <si>
     <t>WT A0300</t>
+  </si>
+  <si>
+    <t>Back to BOM</t>
+  </si>
+  <si>
+    <t>Asm Cost</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Wheels &amp; Tires</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Wheel Assembly</t>
+  </si>
+  <si>
+    <t>FileLink1</t>
+  </si>
+  <si>
+    <t>P/N Base</t>
+  </si>
+  <si>
+    <t>WT A0100</t>
+  </si>
+  <si>
+    <t>FileLink2</t>
+  </si>
+  <si>
+    <t>Extended Cost</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>FileLink3</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Complete Wheel Assembly</t>
+  </si>
+  <si>
+    <t>ItemOrder</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>UnitCost</t>
+  </si>
+  <si>
+    <t>Size1</t>
+  </si>
+  <si>
+    <t>Unit1</t>
+  </si>
+  <si>
+    <t>Size2</t>
+  </si>
+  <si>
+    <t>Unit2</t>
+  </si>
+  <si>
+    <t>Area Name</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Wheel, 13", 1 Piece OZ, Aluminum</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Tire, Hoosier, R25B, 13"-20.5 x 7.0</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>Valve Stem (and Tire Inflation)</t>
+  </si>
+  <si>
+    <t>Wheel Weights (and Balancing)</t>
+  </si>
+  <si>
+    <t>Balancing and set up the wheel</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Mult. Val.</t>
+  </si>
+  <si>
+    <t>Assemble, 5kg, Line-on-Line</t>
+  </si>
+  <si>
+    <t>Fix Wheel on Hubs</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 25.4 mm</t>
+  </si>
+  <si>
+    <t>Tighten Lug Nuts</t>
+  </si>
+  <si>
+    <t>Fastener</t>
+  </si>
+  <si>
+    <t>Nut, Lug</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Wheels, Wheel Bearings and Tires</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Wheel Studs</t>
+  </si>
+  <si>
+    <t>Stud, Grade 12.9</t>
+  </si>
+  <si>
+    <t>Front Wheel Spacer on hub</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Loose</t>
+  </si>
+  <si>
+    <t>Wheel studs and hub assemble</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Line-on-Line</t>
+  </si>
+  <si>
+    <t>Liquid Applicator Gun</t>
+  </si>
+  <si>
+    <t>Locknut on hub</t>
+  </si>
+  <si>
+    <t>Lock nut washer assemble on the hub</t>
+  </si>
+  <si>
+    <t>Assemble, 1kg, Loose</t>
+  </si>
+  <si>
+    <t>Speed sensor disc assemble on the hub</t>
+  </si>
+  <si>
+    <t>Speed sensor spacer assemble on the hub</t>
+  </si>
+  <si>
+    <t>Bearings Assemble</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Interference</t>
+  </si>
+  <si>
+    <t>Bearing spacer assemble on the hub</t>
+  </si>
+  <si>
+    <t>Wheel studs and hub assemble, cost included in process</t>
+  </si>
+  <si>
+    <t>Adhesive</t>
+  </si>
+  <si>
+    <t>Bearing Nuts</t>
+  </si>
+  <si>
+    <t>Locknut/L.P.///Steel/</t>
+  </si>
+  <si>
+    <t>Wheel Bearing, Ball, Angular Contact</t>
+  </si>
+  <si>
+    <t>Speed Sensor Disc</t>
+  </si>
+  <si>
+    <t>Speed Sensor Spacer</t>
+  </si>
+  <si>
+    <t>Front Wheel Spacer</t>
+  </si>
+  <si>
+    <t>Front Bearing Spacer</t>
+  </si>
+  <si>
+    <t>Part Cost</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Assembly of a part of the wheel with the hub, bearings and a part to mesure the speed of the wheel</t>
+  </si>
+  <si>
+    <t>Front Hubs</t>
+  </si>
+  <si>
+    <t>Material - Aluminium</t>
+  </si>
+  <si>
+    <t>For locknut</t>
+  </si>
+  <si>
+    <t>Threading, External (machining)</t>
+  </si>
+  <si>
+    <t>For wheel studs</t>
+  </si>
+  <si>
+    <t>Threading, Internal (machining)</t>
+  </si>
+  <si>
+    <t>cm^3</t>
+  </si>
+  <si>
+    <t>Milling</t>
+  </si>
+  <si>
+    <t>Machining</t>
+  </si>
+  <si>
+    <t>Machining Setup, Change</t>
+  </si>
+  <si>
+    <t>Machining Setup, Install and Remove</t>
+  </si>
+  <si>
+    <t>Turning</t>
+  </si>
+  <si>
+    <t>Change the turning setup</t>
+  </si>
+  <si>
+    <t>Setup for turning</t>
+  </si>
+  <si>
+    <t>round area, 130mm diameter</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Aluminium, Premium</t>
+  </si>
+  <si>
+    <t>Main part of the assembly</t>
+  </si>
+  <si>
+    <t>Front Hub</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Drawing part :</t>
+  </si>
+  <si>
+    <t>round area, 55mm diameter</t>
+  </si>
+  <si>
+    <t>Part to let a space beetween the hub and the first bearing</t>
+  </si>
+  <si>
+    <t>Wheel bearing spacer</t>
+  </si>
+  <si>
+    <t>Part to position the wheel on the good position relative to the hub and upright assembly</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>one setup for 2 pieces</t>
+  </si>
+  <si>
+    <t>Square area 45x45mm</t>
+  </si>
+  <si>
+    <t>Aluminum, Normal</t>
+  </si>
+  <si>
+    <t>Part to avoid the speed sensor disc to interfere with the Upright</t>
+  </si>
+  <si>
+    <t>Speed sensor spacer</t>
+  </si>
+  <si>
+    <t>rectangular area, 160mm*160mm</t>
+  </si>
+  <si>
+    <t>Steel, Mild</t>
+  </si>
+  <si>
+    <t>Disc use in combination with a sensor to obtain the speed of a wheel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="12">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +618,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +680,20 @@
         <bgColor indexed="62"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor rgb="FFFCD5B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor rgb="FFFAC090"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -468,21 +850,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="11">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="11">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -629,16 +1210,228 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyBorder="1"/>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="8" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="18" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="9" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="17" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="17" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="18" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="17" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="17" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Milliers 2" xfId="8"/>
+    <cellStyle name="Milliers 2 2" xfId="11"/>
+    <cellStyle name="Monétaire 10" xfId="10"/>
     <cellStyle name="Monétaire 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="12"/>
+    <cellStyle name="Normal_Sheet1" xfId="9"/>
     <cellStyle name="TableStyleLight1" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -657,6 +1450,505 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78E01EE-D5C9-4656-995C-562BE1FCA0F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364220" y="2882901"/>
+          <a:ext cx="1938020" cy="1784494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518583</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1050227" cy="1138767"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142143" y="2289810"/>
+          <a:ext cx="1050227" cy="1138767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46494</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7748766" cy="5873717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Capture d’écran">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302AF336-9480-4529-90BA-583D1BC72A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="984018" y="-747798"/>
+          <a:ext cx="5873717" cy="7748766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175986</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2819187" cy="2872014"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8980714" y="2766786"/>
+          <a:ext cx="2819187" cy="2872014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12732829" cy="8261282"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Capture d’écran">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74DC004-A517-45BD-BAFC-0DA3CB03752B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="354330"/>
+          <a:ext cx="12732829" cy="8261282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>262466</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1854664" cy="1764454"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8669866" y="2223346"/>
+          <a:ext cx="1854664" cy="1764454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7694696" cy="5002531"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="WT_0200_005 (Bearing Spacer).pdf - Adobe Acrobat Pro DC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D557CDED-1C8D-48A4-BC2E-B78FFB45F9FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="131445" y="340994"/>
+          <a:ext cx="7694696" cy="5002531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238538</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>75712</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1961323" cy="1859056"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686260" y="2302077"/>
+          <a:ext cx="1961323" cy="1859056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8099828" cy="5290457"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Capture d’écran">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C234CC-4F70-4793-A733-BA6337941E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="185057"/>
+          <a:ext cx="8099828" cy="5290457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355601</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67735</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1205322" cy="1312332"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6290734" y="2116668"/>
+          <a:ext cx="1205322" cy="1312332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8094994" cy="5280026"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="WT_0200_004 (Speed Sensor Spacer).pdf - Adobe Acrobat Pro DC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D89A97F-D8BD-4967-88B5-A2B05BD8E1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="282575"/>
+          <a:ext cx="8094994" cy="5280026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,18 +2219,18 @@
   </sheetPr>
   <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B40" sqref="B40"/>
       <selection pane="topRight" activeCell="B40" sqref="B40"/>
       <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="2" customWidth="1"/>
@@ -1056,13 +2348,12 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
-      <c r="B7" s="34" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="32" t="e">
+      <c r="B7" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="32" t="str">
         <f>WT_A0100</f>
-        <v>#REF!</v>
+        <v>WT A0100</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>1</v>
@@ -1073,40 +2364,39 @@
         <v>#REF!</v>
       </c>
       <c r="G7" s="32"/>
-      <c r="H7" s="31" t="e">
+      <c r="H7" s="31">
         <f t="shared" ref="H7:H17" si="0">SUM(J7:M7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="30" t="e">
+        <v>175.23</v>
+      </c>
+      <c r="I7" s="30">
         <f>WT_A0100_q</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="29" t="e">
+        <v>4</v>
+      </c>
+      <c r="J7" s="29">
         <f>WT_A0100_m</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="29" t="e">
+        <v>170</v>
+      </c>
+      <c r="K7" s="29">
         <f>WT_A0100_p</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="29" t="e">
+        <v>3.63</v>
+      </c>
+      <c r="L7" s="29">
         <f>WT_A0100_f</f>
-        <v>#REF!</v>
+        <v>1.6</v>
       </c>
       <c r="M7" s="29">
         <v>0</v>
       </c>
-      <c r="N7" s="28" t="e">
+      <c r="N7" s="28">
         <f t="shared" ref="N7:N14" si="1">H7*I7</f>
-        <v>#REF!</v>
+        <v>700.92</v>
       </c>
       <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
-      <c r="B8" s="34" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B8" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>25</v>
@@ -1122,39 +2412,38 @@
       <c r="G8" s="32"/>
       <c r="H8" s="31" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="30" t="e">
         <f>WT_A0200_q</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="29" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="29">
         <f>WT_A0200_m</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="29" t="e">
+        <v>243.47088403557726</v>
+      </c>
+      <c r="K8" s="29">
         <f>WT_A0200_p</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="29" t="e">
+        <v>1.6314000000000002</v>
+      </c>
+      <c r="L8" s="29">
         <f>WT_A0200_f</f>
-        <v>#REF!</v>
+        <v>4.2620857182511926</v>
       </c>
       <c r="M8" s="29" t="e">
         <f>WT_A0200_t</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="28" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B9" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>26</v>
@@ -1170,19 +2459,19 @@
       <c r="G9" s="23"/>
       <c r="H9" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="21" t="e">
         <f>WT_A0200_q*WT_02001_q</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J9" s="20" t="e">
         <f>WT_02001_m</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="K9" s="20" t="e">
         <f>WT_02001_p</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L9" s="20" t="e">
         <f>WT_02001_f</f>
@@ -1194,15 +2483,14 @@
       </c>
       <c r="N9" s="19" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B10" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>27</v>
@@ -1222,7 +2510,7 @@
       </c>
       <c r="I10" s="21" t="e">
         <f>WT_A0200_q*WT_02002_q</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J10" s="20" t="e">
         <f>WT_02002_m</f>
@@ -1248,9 +2536,8 @@
     </row>
     <row r="11" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="B11" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B11" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -1270,7 +2557,7 @@
       </c>
       <c r="I11" s="21" t="e">
         <f>WT_A0200_q*WT_02003_q</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J11" s="20" t="e">
         <f>WT_02003_m</f>
@@ -1296,9 +2583,8 @@
     </row>
     <row r="12" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B12" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>29</v>
@@ -1318,7 +2604,7 @@
       </c>
       <c r="I12" s="21" t="e">
         <f>WT_A0200_q*WT_02004_q</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J12" s="20" t="e">
         <f>WT_02004_m</f>
@@ -1344,9 +2630,8 @@
     </row>
     <row r="13" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
-      <c r="B13" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B13" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -1366,7 +2651,7 @@
       </c>
       <c r="I13" s="21" t="e">
         <f>WT_A0200_q*WT_02005_q</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J13" s="20" t="e">
         <f>WT_02005_m</f>
@@ -1392,9 +2677,8 @@
     </row>
     <row r="14" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B14" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>31</v>
@@ -1414,7 +2698,7 @@
       </c>
       <c r="I14" s="21" t="e">
         <f>WT_A0200_q*WT_02006_q</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J14" s="20" t="e">
         <f>WT_02006_m</f>
@@ -1440,9 +2724,8 @@
     </row>
     <row r="15" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
-      <c r="B15" s="34" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B15" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>32</v>
@@ -1485,9 +2768,8 @@
     </row>
     <row r="16" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B16" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
@@ -1513,9 +2795,8 @@
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
-      <c r="B17" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B17" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23" t="s">
@@ -1556,23 +2837,23 @@
       <c r="I18" s="13"/>
       <c r="J18" s="12" t="e">
         <f>SUMPRODUCT($I7:$I17,J7:J17)</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="K18" s="12" t="e">
         <f>SUMPRODUCT($I7:$I17,K7:K17)</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="L18" s="12" t="e">
         <f>SUMPRODUCT($I7:$I17,L7:L17)</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M18" s="12" t="e">
         <f>SUMPRODUCT($I7:$I17,M7:M17)</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="12" t="e">
         <f>SUM(N7:N17)</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="O18" s="11"/>
     </row>
@@ -3807,4 +5088,5311 @@
     <brk id="6" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="67"/>
+    <col min="2" max="2" width="25.109375" style="67" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="67" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="67"/>
+    <col min="7" max="7" width="20.5546875" style="67" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="67"/>
+    <col min="9" max="9" width="20.5546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.109375" style="67"/>
+    <col min="14" max="14" width="12.5546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="71">
+        <v>81</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="78">
+        <f>WT_0200_004_m+WT_0200_004_p</f>
+        <v>0.95013112</v>
+      </c>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="69" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="74">
+        <v>1</v>
+      </c>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="144" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="78">
+        <f>N3*N2</f>
+        <v>0.95013112</v>
+      </c>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="73"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="73"/>
+    </row>
+    <row r="11" spans="1:15" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="136">
+        <v>10</v>
+      </c>
+      <c r="B11" s="135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="133"/>
+      <c r="D11" s="121">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="134">
+        <f>J11*K11*L11</f>
+        <v>1.0983600000000001E-2</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="133"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="130">
+        <f>(45*10^(-3))^2</f>
+        <v>2.0249999999999999E-3</v>
+      </c>
+      <c r="K11" s="129">
+        <v>2E-3</v>
+      </c>
+      <c r="L11" s="128">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="127">
+        <v>1</v>
+      </c>
+      <c r="N11" s="121">
+        <f>D11*E11</f>
+        <v>4.6131120000000005E-2</v>
+      </c>
+      <c r="O11" s="88"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="119">
+        <f>N11*M11</f>
+        <v>4.6131120000000005E-2</v>
+      </c>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" s="97" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="107">
+        <v>10</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="152">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="107">
+        <v>1</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="123">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="96"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="107">
+        <v>20</v>
+      </c>
+      <c r="B16" s="158" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="158"/>
+      <c r="D16" s="152">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="107">
+        <v>25.4</v>
+      </c>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107">
+        <v>1</v>
+      </c>
+      <c r="I16" s="123">
+        <f>F16*D16</f>
+        <v>0.254</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="119">
+        <f>SUM(I15:I16)</f>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="73"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="79"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="73"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" location="'WT 02004 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="19" max="16383" man="1"/>
+    <brk id="53" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="67" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="144" t="str">
+        <f>WT_0200_004</f>
+        <v>WT 02004</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'WT 02004'!A1" display="'WT 02004'!A1"/>
+    <hyperlink ref="A1" location="'WT 02004'!A1" display="Drawing part :"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="13" width="9.109375" style="67"/>
+    <col min="14" max="14" width="12.5546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="71">
+        <v>81</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="78">
+        <f>WT_0200_006_m+WT_0200_006_p</f>
+        <v>3.9701600000000004</v>
+      </c>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="69" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="74">
+        <v>1</v>
+      </c>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="144" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="78">
+        <f>N3*N2</f>
+        <v>3.9701600000000004</v>
+      </c>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="73"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="73"/>
+    </row>
+    <row r="11" spans="1:15" s="89" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="136">
+        <v>10</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="82">
+        <v>2.25</v>
+      </c>
+      <c r="E11" s="134">
+        <f>J11*K11*L11</f>
+        <v>0.20096000000000003</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="133"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="130">
+        <f>0.16*0.16</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="K11" s="129">
+        <v>1E-3</v>
+      </c>
+      <c r="L11" s="128">
+        <v>7850</v>
+      </c>
+      <c r="M11" s="127">
+        <v>1</v>
+      </c>
+      <c r="N11" s="121">
+        <f>D11*E11</f>
+        <v>0.45216000000000006</v>
+      </c>
+      <c r="O11" s="88"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="119">
+        <f>N11*M11</f>
+        <v>0.45216000000000006</v>
+      </c>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="80">
+        <v>10</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="82">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="80">
+        <v>1</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="123">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="96"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="80">
+        <v>20</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="82">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="80">
+        <v>286.8</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80">
+        <v>1</v>
+      </c>
+      <c r="I16" s="121">
+        <f>F16*D16</f>
+        <v>2.8680000000000003</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="119">
+        <f>SUM(I15:I16)</f>
+        <v>3.5180000000000002</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="73"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="79"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="73"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+    <hyperlink ref="E3" location="'WT 02005 Drawing'!A1" display="Drawing"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="19" max="16383" man="1"/>
+    <brk id="53" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="67" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="144" t="str">
+        <f>WT_0200_006</f>
+        <v>WT 02005</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'WT 02005'!A1" display="Drawing part :"/>
+    <hyperlink ref="B1" location="'WT 02005'!A1" display="'WT 02005'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF33CCFF"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="67"/>
+    <col min="2" max="2" width="32.6640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="67" customWidth="1"/>
+    <col min="4" max="14" width="9.109375" style="67"/>
+    <col min="15" max="15" width="36.44140625" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="71">
+        <v>81</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="72">
+        <f>WT_A0100_m+WT_A0100_p+WT_A0100_f</f>
+        <v>175.23</v>
+      </c>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="74">
+        <v>4</v>
+      </c>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="78">
+        <f>N2*N3</f>
+        <v>700.92</v>
+      </c>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="73"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="73"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="80">
+        <v>10</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="82">
+        <v>80</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="80"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="86">
+        <v>1</v>
+      </c>
+      <c r="N11" s="87">
+        <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
+        <v>80</v>
+      </c>
+      <c r="O11" s="73"/>
+    </row>
+    <row r="12" spans="1:15" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="80">
+        <v>20</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="82">
+        <v>85</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="86">
+        <v>1</v>
+      </c>
+      <c r="N12" s="87">
+        <f>IF(J12="",D12*M12,D12*J12*K12*L12*M12)</f>
+        <v>85</v>
+      </c>
+      <c r="O12" s="88"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="80">
+        <v>30</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="82">
+        <v>1</v>
+      </c>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="86">
+        <v>1</v>
+      </c>
+      <c r="N13" s="87">
+        <f>IF(J13="",D13*M13,D13*J13*K13*L13*M13)</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="80">
+        <v>40</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="82">
+        <v>4</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="80"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="92">
+        <v>1</v>
+      </c>
+      <c r="N14" s="87">
+        <f>IF(J14="",D14*M14,D14*J14*K14*L14*M14)</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="95">
+        <f>SUM(N11:N14)</f>
+        <v>170</v>
+      </c>
+      <c r="O15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="79"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="96"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="80">
+        <v>10</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="82">
+        <v>0.63</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="80">
+        <v>1</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80">
+        <v>1</v>
+      </c>
+      <c r="I18" s="82">
+        <f>D18*F18*H18</f>
+        <v>0.63</v>
+      </c>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="73"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="80">
+        <v>20</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="82">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="80">
+        <v>4</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80">
+        <v>1</v>
+      </c>
+      <c r="I19" s="82">
+        <f>D19*F19*H19</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="73"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="95">
+        <f>SUM(I18:I19)</f>
+        <v>3.63</v>
+      </c>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="73"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="79"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="73"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="73"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="80">
+        <v>10</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="82">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="80"/>
+      <c r="F23" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="80"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="102">
+        <v>4</v>
+      </c>
+      <c r="J23" s="82">
+        <f>D23*I23</f>
+        <v>1.6</v>
+      </c>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="73"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="95">
+        <f>SUM(J23:J23)</f>
+        <v>1.6</v>
+      </c>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="73"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="79"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="73"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="105"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" location="WT_A0100_BOM" display="Back to BOM"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="26" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF33CCFF"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="67"/>
+    <col min="2" max="2" width="29.6640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="67" customWidth="1"/>
+    <col min="4" max="13" width="9.109375" style="67"/>
+    <col min="14" max="14" width="10.88671875" style="67" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="71">
+        <v>81</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="72">
+        <f>WT_A0200_pa+WT_A0200_m+WT_A0200_p+WT_A0200_f</f>
+        <v>341.7412675152284</v>
+      </c>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="74">
+        <v>2</v>
+      </c>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="78">
+        <f>N2*N3</f>
+        <v>683.4825350304568</v>
+      </c>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="73"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="112">
+        <v>10</v>
+      </c>
+      <c r="B10" s="115" t="str">
+        <f>'WT 02001'!B5</f>
+        <v>Front Hub</v>
+      </c>
+      <c r="C10" s="78">
+        <f>'WT 02001'!N2</f>
+        <v>64.158517485600001</v>
+      </c>
+      <c r="D10" s="114">
+        <f>'WT 02001'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="78">
+        <f>C10*D10</f>
+        <v>64.158517485600001</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="73"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="112">
+        <v>20</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="78">
+        <f>'WT 02002'!N2</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="D11" s="114">
+        <f>'WT 02002'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="78">
+        <f>C11*D11</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="73"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="112">
+        <v>30</v>
+      </c>
+      <c r="B12" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="78">
+        <f>'WT 02003'!N2</f>
+        <v>20.676657798400001</v>
+      </c>
+      <c r="D12" s="114">
+        <f>'WT 02003'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="78">
+        <f>C12*D12</f>
+        <v>20.676657798400001</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="116"/>
+    </row>
+    <row r="13" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112">
+        <v>40</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="78">
+        <f>'WT 02004'!N2</f>
+        <v>0.95013112</v>
+      </c>
+      <c r="D13" s="114">
+        <f>'WT 02004'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="78">
+        <f>C13*D13</f>
+        <v>0.95013112</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="116"/>
+    </row>
+    <row r="14" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="112">
+        <v>50</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="78">
+        <f>'WT 02005'!N2</f>
+        <v>3.9701600000000004</v>
+      </c>
+      <c r="D14" s="114">
+        <f>'WT 02005'!N3</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="78">
+        <f>C14*D14</f>
+        <v>3.9701600000000004</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="109"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="79"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="95">
+        <f>SUM(E10:E14)</f>
+        <v>92.376897761400002</v>
+      </c>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="79"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="73"/>
+    </row>
+    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="146">
+        <v>10</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147">
+        <f>0.4*((E18^2*G18))^0.5</f>
+        <v>118.74544201778863</v>
+      </c>
+      <c r="E18" s="146">
+        <v>72</v>
+      </c>
+      <c r="F18" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="146">
+        <v>17</v>
+      </c>
+      <c r="H18" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="169">
+        <v>2</v>
+      </c>
+      <c r="N18" s="147">
+        <f>M18*D18</f>
+        <v>237.49088403557727</v>
+      </c>
+      <c r="O18" s="73"/>
+    </row>
+    <row r="19" spans="1:15" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="151">
+        <v>20</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="152">
+        <f>0.126*E19+1.57</f>
+        <v>5.98</v>
+      </c>
+      <c r="E19" s="151">
+        <v>35</v>
+      </c>
+      <c r="F19" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="151"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="156">
+        <v>1</v>
+      </c>
+      <c r="N19" s="147">
+        <f>M19*D19</f>
+        <v>5.98</v>
+      </c>
+      <c r="O19" s="88"/>
+    </row>
+    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="151">
+        <v>30</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="152">
+        <v>0</v>
+      </c>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="147">
+        <f>M20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="73"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="95">
+        <f>SUM(N18:N20)</f>
+        <v>243.47088403557726</v>
+      </c>
+      <c r="O21" s="73"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="79"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="73"/>
+    </row>
+    <row r="23" spans="1:15" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="96"/>
+    </row>
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="157">
+        <v>10</v>
+      </c>
+      <c r="B24" s="158" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="158" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="159">
+        <v>0.06</v>
+      </c>
+      <c r="E24" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="107">
+        <v>1</v>
+      </c>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107">
+        <v>1</v>
+      </c>
+      <c r="I24" s="147">
+        <f>IF(H24="",D24*F24,D24*F24*H24)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="73"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="107">
+        <v>20</v>
+      </c>
+      <c r="B25" s="158" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="158" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="160">
+        <v>0.19</v>
+      </c>
+      <c r="E25" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="107">
+        <v>2</v>
+      </c>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107">
+        <v>1</v>
+      </c>
+      <c r="I25" s="147">
+        <f>IF(H25="",D25*F25,D25*F25*H25)</f>
+        <v>0.38</v>
+      </c>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="73"/>
+    </row>
+    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="157">
+        <v>30</v>
+      </c>
+      <c r="B26" s="158" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="159">
+        <v>0.06</v>
+      </c>
+      <c r="E26" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="107">
+        <v>1</v>
+      </c>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107">
+        <v>1</v>
+      </c>
+      <c r="I26" s="147">
+        <f>IF(H26="",D26*F26,D26*F26*H26)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="73"/>
+    </row>
+    <row r="27" spans="1:15" s="110" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="157">
+        <v>40</v>
+      </c>
+      <c r="B27" s="158" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="159">
+        <v>0.06</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="107">
+        <v>1</v>
+      </c>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107">
+        <v>1</v>
+      </c>
+      <c r="I27" s="147">
+        <f>IF(H27="",D27*F27,D27*F27*H27)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="109"/>
+    </row>
+    <row r="28" spans="1:15" s="97" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="157">
+        <v>50</v>
+      </c>
+      <c r="B28" s="158" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="158" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="159">
+        <v>0.06</v>
+      </c>
+      <c r="E28" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="107">
+        <v>1</v>
+      </c>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107">
+        <v>1</v>
+      </c>
+      <c r="I28" s="147">
+        <f>IF(H28="",D28*F28,D28*F28*H28)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="96"/>
+    </row>
+    <row r="29" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="107">
+        <v>80</v>
+      </c>
+      <c r="B29" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="161">
+        <v>0.13</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="162">
+        <v>1</v>
+      </c>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107">
+        <v>1</v>
+      </c>
+      <c r="I29" s="147">
+        <f>IF(H29="",D29*F29,D29*F29*H29)</f>
+        <v>0.13</v>
+      </c>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="96"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="107">
+        <v>60</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="159">
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="107">
+        <v>15.07</v>
+      </c>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107">
+        <v>1</v>
+      </c>
+      <c r="I30" s="147">
+        <f>IF(H30="",D30*F30,D30*F30*H30)</f>
+        <v>0.3014</v>
+      </c>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="109"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="157">
+        <v>70</v>
+      </c>
+      <c r="B31" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="159">
+        <v>0.13</v>
+      </c>
+      <c r="E31" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="107">
+        <v>4</v>
+      </c>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107">
+        <v>1</v>
+      </c>
+      <c r="I31" s="147">
+        <f>IF(H31="",D31*F31,D31*F31*H31)</f>
+        <v>0.52</v>
+      </c>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="73"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="107">
+        <v>80</v>
+      </c>
+      <c r="B32" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="161">
+        <v>0.06</v>
+      </c>
+      <c r="E32" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="162">
+        <v>1</v>
+      </c>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107">
+        <v>1</v>
+      </c>
+      <c r="I32" s="147">
+        <f>IF(H32="",D32*F32,D32*F32*H32)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="73"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="95">
+        <f>SUM(I24:I32)</f>
+        <v>1.6314000000000002</v>
+      </c>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="73"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="79"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="73"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="73"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="164">
+        <v>10</v>
+      </c>
+      <c r="B36" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="165">
+        <f>1.25/105154*E36^2*G36*SQRT(G36)+(0.005*EXP(0.319*E36))</f>
+        <v>1.0655214295627982</v>
+      </c>
+      <c r="E36" s="164">
+        <v>12</v>
+      </c>
+      <c r="F36" s="167" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="164">
+        <v>62</v>
+      </c>
+      <c r="H36" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="168">
+        <v>4</v>
+      </c>
+      <c r="J36" s="165">
+        <f>D36*I36</f>
+        <v>4.2620857182511926</v>
+      </c>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="73"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="95">
+        <f>SUM(J36:J36)</f>
+        <v>4.2620857182511926</v>
+      </c>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="73"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="79"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="73"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="103"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="105"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" location="'WT 02001'!A1" display="'WT 02001'!A1"/>
+    <hyperlink ref="B11" location="'WT 02002'!A1" display="Front Bearing Spacer"/>
+    <hyperlink ref="B13" location="'WT 02004'!A1" display="Speed Sensor Spacer"/>
+    <hyperlink ref="B14" location="'WT 02005'!A1" display="Speed Sensor Disc"/>
+    <hyperlink ref="B12" location="'WT 02003'!A1" display="Front Wheel Spacer"/>
+    <hyperlink ref="E2" location="WT_A0200_BOM" display="Back to BOM"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="67"/>
+    <col min="2" max="2" width="17.6640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="18" style="67" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="67"/>
+    <col min="5" max="5" width="9.109375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="67"/>
+    <col min="7" max="7" width="28.109375" style="67" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="67"/>
+    <col min="9" max="9" width="16.5546875" style="67" customWidth="1"/>
+    <col min="10" max="13" width="9.109375" style="67"/>
+    <col min="14" max="14" width="12.5546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="71">
+        <v>81</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="78">
+        <f>WT_0200_001_m+WT_0200_001_p</f>
+        <v>64.158517485600001</v>
+      </c>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="69" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="74">
+        <v>1</v>
+      </c>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="144" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="78">
+        <f>N3*N2</f>
+        <v>64.158517485600001</v>
+      </c>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="73"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="73"/>
+    </row>
+    <row r="11" spans="1:15" s="89" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="170">
+        <v>10</v>
+      </c>
+      <c r="B11" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="172"/>
+      <c r="D11" s="123">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="173">
+        <f>J11*K11*L11</f>
+        <v>3.2740660680000002</v>
+      </c>
+      <c r="F11" s="172" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="172"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="176">
+        <f>(65*10^-3)^2*3.14</f>
+        <v>1.3266500000000002E-2</v>
+      </c>
+      <c r="K11" s="177">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L11" s="178">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="179">
+        <v>1</v>
+      </c>
+      <c r="N11" s="123">
+        <f>D11*E11</f>
+        <v>13.751077485600002</v>
+      </c>
+      <c r="O11" s="88"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="119">
+        <f>N11*M11</f>
+        <v>13.751077485600002</v>
+      </c>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" s="97" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="107">
+        <v>10</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="152">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="107">
+        <v>1</v>
+      </c>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107">
+        <v>1</v>
+      </c>
+      <c r="I15" s="123">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="96"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="107">
+        <v>20</v>
+      </c>
+      <c r="B16" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="107">
+        <f>13.2+898.7+18.7</f>
+        <v>930.60000000000014</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="107">
+        <v>1</v>
+      </c>
+      <c r="I16" s="123">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <v>37.224000000000004</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" s="110" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="107">
+        <v>30</v>
+      </c>
+      <c r="B17" s="158" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="152">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="107">
+        <v>1</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107">
+        <v>1</v>
+      </c>
+      <c r="I17" s="123">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="109"/>
+    </row>
+    <row r="18" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="107">
+        <v>40</v>
+      </c>
+      <c r="B18" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="107">
+        <f>13.2+53.1-2.8</f>
+        <v>63.5</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="107">
+        <v>1</v>
+      </c>
+      <c r="I18" s="123">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>2.54</v>
+      </c>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="109"/>
+    </row>
+    <row r="19" spans="1:15" s="110" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="107">
+        <v>50</v>
+      </c>
+      <c r="B19" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="158"/>
+      <c r="D19" s="152">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="107">
+        <v>1</v>
+      </c>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107">
+        <v>1</v>
+      </c>
+      <c r="I19" s="123">
+        <f>IF(H19="",D19*F19,D19*F19*H19)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="109"/>
+    </row>
+    <row r="20" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107">
+        <v>60</v>
+      </c>
+      <c r="B20" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="158" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="107">
+        <v>149</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="107">
+        <v>1</v>
+      </c>
+      <c r="I20" s="123">
+        <f>IF(H20="",D20*F20,D20*F20*H20)</f>
+        <v>5.96</v>
+      </c>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="109"/>
+    </row>
+    <row r="21" spans="1:15" s="110" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="107">
+        <v>70</v>
+      </c>
+      <c r="B21" s="158" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="158"/>
+      <c r="D21" s="152">
+        <v>0.65</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="107">
+        <v>1</v>
+      </c>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107">
+        <v>1</v>
+      </c>
+      <c r="I21" s="123">
+        <f>IF(H21="",D21*F21,D21*F21*H21)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="109"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="107">
+        <v>80</v>
+      </c>
+      <c r="B22" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="158" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E22" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="107">
+        <f>0.48*0.7</f>
+        <v>0.33599999999999997</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="107">
+        <v>1</v>
+      </c>
+      <c r="I22" s="123">
+        <f>IF(H22="",D22*F22,D22*F22*H22)</f>
+        <v>1.3439999999999999E-2</v>
+      </c>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="73"/>
+    </row>
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="107">
+        <v>90</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="158" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="152">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="107">
+        <v>6</v>
+      </c>
+      <c r="G23" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="107">
+        <v>1</v>
+      </c>
+      <c r="I23" s="123">
+        <f>IF(H23="",D23*F23,D23*F23*H23)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="73"/>
+    </row>
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="107">
+        <v>100</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="152">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="107">
+        <v>1.7</v>
+      </c>
+      <c r="G24" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="107">
+        <v>1</v>
+      </c>
+      <c r="I24" s="123">
+        <f>IF(H24="",D24*F24,D24*F24*H24)</f>
+        <v>0.17</v>
+      </c>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="73"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="119">
+        <f>SUM(I15:I24)</f>
+        <v>50.407440000000001</v>
+      </c>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="73"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="79"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="73"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="103"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="105"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" location="'WT 02001 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="27" max="16383" man="1"/>
+    <brk id="61" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="67" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="144" t="str">
+        <f>WT_0200_001</f>
+        <v>WT 02001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'WT 02001'!A1" display="Drawing part :"/>
+    <hyperlink ref="B1" location="'WT 02001'!A1" display="'WT 02001'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="67"/>
+    <col min="2" max="2" width="26.5546875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="23" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="67"/>
+    <col min="5" max="5" width="8.109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.109375" style="67"/>
+    <col min="14" max="14" width="12.5546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="71">
+        <v>81</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="78">
+        <f>WT_0200_005_m+WT_0200_005_p</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="69" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="74">
+        <v>1</v>
+      </c>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="144" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="78">
+        <f>N3*N2</f>
+        <v>2.6214313574000001</v>
+      </c>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="73"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="73"/>
+    </row>
+    <row r="11" spans="1:15" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="136">
+        <v>10</v>
+      </c>
+      <c r="B11" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="133"/>
+      <c r="D11" s="121">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="134">
+        <f>J11*K11*L11</f>
+        <v>5.7959846999999995E-2</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="133"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="130">
+        <f>(55/2*10^-3)^2*3.14</f>
+        <v>2.374625E-3</v>
+      </c>
+      <c r="K11" s="129">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L11" s="128">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="127">
+        <v>1</v>
+      </c>
+      <c r="N11" s="121">
+        <f>D11*E11</f>
+        <v>0.24343135739999999</v>
+      </c>
+      <c r="O11" s="88"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="119">
+        <f>N11*M11</f>
+        <v>0.24343135739999999</v>
+      </c>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" s="97" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="107">
+        <v>10</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="152">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="107">
+        <v>1</v>
+      </c>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107">
+        <v>1</v>
+      </c>
+      <c r="I15" s="123">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="96"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="107">
+        <v>20</v>
+      </c>
+      <c r="B16" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="107">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="107">
+        <v>1</v>
+      </c>
+      <c r="I16" s="123">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="107">
+        <v>30</v>
+      </c>
+      <c r="B17" s="158" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="152">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="107">
+        <v>1</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107">
+        <v>1</v>
+      </c>
+      <c r="I17" s="123">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="109"/>
+    </row>
+    <row r="18" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="107">
+        <v>40</v>
+      </c>
+      <c r="B18" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="107">
+        <v>1</v>
+      </c>
+      <c r="I18" s="123">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="109"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="93"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="119">
+        <f>SUM(I15:I18)</f>
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="73"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="73"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="105"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" location="'WT 02002 Drawing'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="21" max="16383" man="1"/>
+    <brk id="55" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="67" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="144" t="str">
+        <f>WT_0200_005</f>
+        <v>WT 02002</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="WT_0200_005" display="WT_0200_005"/>
+    <hyperlink ref="A1" location="'WT 02002'!A1" display="Drawing part :"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="67"/>
+    <col min="2" max="2" width="17.6640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="67"/>
+    <col min="9" max="9" width="17" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.109375" style="67"/>
+    <col min="14" max="14" width="12.5546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="71">
+        <v>81</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="78">
+        <f>WT_0200_003_m+WT_0200_003_p</f>
+        <v>20.676657798400001</v>
+      </c>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="69" t="str">
+        <f>'WT A0200'!B3</f>
+        <v>Wheels &amp; Tires</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="74">
+        <v>1</v>
+      </c>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="144" t="str">
+        <f>'WT A0200'!B4</f>
+        <v>Front Hubs</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="78">
+        <f>N3*N2</f>
+        <v>20.676657798400001</v>
+      </c>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="73"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="73"/>
+    </row>
+    <row r="11" spans="1:15" s="89" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="170">
+        <v>10</v>
+      </c>
+      <c r="B11" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="172"/>
+      <c r="D11" s="123">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="173">
+        <f>J11*K11*L11</f>
+        <v>0.86348995200000023</v>
+      </c>
+      <c r="F11" s="172" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="172"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="176">
+        <f>(65*10^-3)^2*3.14</f>
+        <v>1.3266500000000002E-2</v>
+      </c>
+      <c r="K11" s="177">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L11" s="178">
+        <v>2712</v>
+      </c>
+      <c r="M11" s="179">
+        <v>1</v>
+      </c>
+      <c r="N11" s="123">
+        <f>D11*E11</f>
+        <v>3.626657798400001</v>
+      </c>
+      <c r="O11" s="88"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="119">
+        <f>N11*M11</f>
+        <v>3.626657798400001</v>
+      </c>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" s="97" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="107">
+        <v>10</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="152">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="107">
+        <v>1</v>
+      </c>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107">
+        <v>1</v>
+      </c>
+      <c r="I15" s="123">
+        <f>IF(H15="",D15*F15,D15*F15*H15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="96"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="107">
+        <v>20</v>
+      </c>
+      <c r="B16" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="107">
+        <v>112</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="107">
+        <v>1</v>
+      </c>
+      <c r="I16" s="123">
+        <f>IF(H16="",D16*F16,D16*F16*H16)</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" s="110" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="107">
+        <v>30</v>
+      </c>
+      <c r="B17" s="158" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="152">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="107">
+        <v>1</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107">
+        <v>1</v>
+      </c>
+      <c r="I17" s="123">
+        <f>IF(H17="",D17*F17,D17*F17*H17)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="109"/>
+    </row>
+    <row r="18" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="107">
+        <v>40</v>
+      </c>
+      <c r="B18" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="107">
+        <v>84</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="107">
+        <v>1</v>
+      </c>
+      <c r="I18" s="123">
+        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <v>3.36</v>
+      </c>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="109"/>
+    </row>
+    <row r="19" spans="1:15" s="110" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="107">
+        <v>50</v>
+      </c>
+      <c r="B19" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="158"/>
+      <c r="D19" s="152">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="107">
+        <v>1</v>
+      </c>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107">
+        <v>1</v>
+      </c>
+      <c r="I19" s="123">
+        <f>IF(H19="",D19*F19,D19*F19*H19)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="109"/>
+    </row>
+    <row r="20" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107">
+        <v>60</v>
+      </c>
+      <c r="B20" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="158" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="152">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="107">
+        <v>149</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="107">
+        <v>1</v>
+      </c>
+      <c r="I20" s="123">
+        <f>IF(H20="",D20*F20,D20*F20*H20)</f>
+        <v>5.96</v>
+      </c>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="109"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="119">
+        <f>SUM(I15:I20)</f>
+        <v>17.05</v>
+      </c>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="73"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="79"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="73"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="103"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="105"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="'WT A0200'!A1" display="'WT A0200'!A1"/>
+    <hyperlink ref="E3" location="'WT 02003 Drawing'!A1" display="Drawing"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="23" max="16383" man="1"/>
+    <brk id="57" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="67" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="144" t="str">
+        <f>WT_0200_003</f>
+        <v>WT 02003</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'WT 02003'!A1" display="Drawing part :"/>
+    <hyperlink ref="B1" location="'WT 02003'!A1" display="'WT 02003'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>